--- a/data/template/External_subject_task_counts.xlsx
+++ b/data/template/External_subject_task_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE10117-BA07-4DDE-823B-AF2709E55D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649A79B-E145-4678-A89B-B9F147DAD200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,7 +1444,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3336,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,8 +3690,8 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -3996,8 +3996,8 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
@@ -4047,8 +4047,8 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
@@ -4098,8 +4098,8 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
@@ -4149,8 +4149,8 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
@@ -4200,8 +4200,8 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -4251,8 +4251,8 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
@@ -4302,8 +4302,8 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
@@ -4353,8 +4353,8 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -4404,8 +4404,8 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
@@ -4455,8 +4455,8 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
@@ -4506,8 +4506,8 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="30"/>
       <c r="R21" s="30"/>
@@ -4557,8 +4557,8 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>

--- a/data/template/External_subject_task_counts.xlsx
+++ b/data/template/External_subject_task_counts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649A79B-E145-4678-A89B-B9F147DAD200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73B678-D189-4A04-BF96-B38D66054127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
     <sheet name="2.参与外中心非立项任务统计表" sheetId="32" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1.参与外中心立项项目统计表'!$A$4:$AW$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2.参与外中心非立项任务统计表'!$A$4:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1.参与外中心立项项目统计表'!$A$4:$AY$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2.参与外中心非立项任务统计表'!$A$4:$AO$33</definedName>
     <definedName name="名称" localSheetId="3">#REF!</definedName>
     <definedName name="名称" localSheetId="4">#REF!</definedName>
     <definedName name="名称" localSheetId="5">#REF!</definedName>
@@ -43,7 +43,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>项目基本信息</t>
   </si>
@@ -522,6 +522,14 @@
   </si>
   <si>
     <t>参与外中心立项项目统计表-2023</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务来源分类</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +783,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -876,7 +890,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +988,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,11 +1457,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,184 +1472,191 @@
     <col min="4" max="4" width="10.109375" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="29" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="7" style="29" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="30" customWidth="1"/>
-    <col min="13" max="13" width="13" style="31" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" style="29" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="36.88671875" style="30" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" style="30" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="29" customWidth="1"/>
-    <col min="20" max="21" width="13.6640625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="19.21875" style="29" customWidth="1"/>
-    <col min="23" max="23" width="22.5546875" style="29" customWidth="1"/>
-    <col min="24" max="24" width="19.21875" style="30" customWidth="1"/>
-    <col min="25" max="25" width="16" style="30" customWidth="1"/>
-    <col min="26" max="28" width="9.77734375" style="29" customWidth="1"/>
-    <col min="29" max="31" width="10" style="29"/>
-    <col min="32" max="32" width="10" style="28"/>
-    <col min="33" max="33" width="12.44140625" style="28" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" style="28" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" style="28" customWidth="1"/>
-    <col min="36" max="36" width="13.109375" style="28" customWidth="1"/>
-    <col min="37" max="37" width="12.21875" style="28" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" style="28" customWidth="1"/>
-    <col min="39" max="39" width="8.88671875" style="28"/>
-    <col min="40" max="42" width="8.88671875" style="3"/>
-    <col min="43" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="8" width="9.77734375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="7" style="29" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="13" style="31" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" style="29" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="36.88671875" style="30" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" style="30" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="29" customWidth="1"/>
+    <col min="22" max="23" width="13.6640625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="19.21875" style="29" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="29" customWidth="1"/>
+    <col min="26" max="26" width="19.21875" style="30" customWidth="1"/>
+    <col min="27" max="27" width="16" style="30" customWidth="1"/>
+    <col min="28" max="30" width="9.77734375" style="29" customWidth="1"/>
+    <col min="31" max="33" width="10" style="29"/>
+    <col min="34" max="34" width="10" style="28"/>
+    <col min="35" max="35" width="12.44140625" style="28" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" style="28" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" style="28" customWidth="1"/>
+    <col min="38" max="38" width="13.109375" style="28" customWidth="1"/>
+    <col min="39" max="39" width="12.21875" style="28" customWidth="1"/>
+    <col min="40" max="40" width="10.6640625" style="28" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="28"/>
+    <col min="42" max="44" width="8.88671875" style="3"/>
+    <col min="45" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="44"/>
-      <c r="S1" s="43"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="44"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-    </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+    </row>
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="41" t="s">
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="36" t="s">
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-    </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="7" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AG3" s="37" t="s">
+      <c r="AI3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37" t="s">
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="7" t="s">
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1651,99 +1675,105 @@
       <c r="F4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AM4" s="16"/>
-    </row>
-    <row r="5" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AO4" s="16"/>
+    </row>
+    <row r="5" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1754,37 +1784,39 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
       <c r="AD5" s="29"/>
       <c r="AE5" s="29"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
       <c r="AL5" s="28"/>
       <c r="AM5" s="28"/>
-    </row>
-    <row r="6" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+    </row>
+    <row r="6" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1795,37 +1827,39 @@
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
       <c r="AJ6" s="28"/>
       <c r="AK6" s="28"/>
       <c r="AL6" s="28"/>
       <c r="AM6" s="28"/>
-    </row>
-    <row r="7" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+    </row>
+    <row r="7" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1836,37 +1870,39 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="29"/>
       <c r="AE7" s="29"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
       <c r="AL7" s="28"/>
       <c r="AM7" s="28"/>
-    </row>
-    <row r="8" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+    </row>
+    <row r="8" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -1877,37 +1913,39 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
-    </row>
-    <row r="9" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+    </row>
+    <row r="9" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1918,37 +1956,39 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="29"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
       <c r="AL9" s="28"/>
       <c r="AM9" s="28"/>
-    </row>
-    <row r="10" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+    </row>
+    <row r="10" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -1959,37 +1999,39 @@
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="29"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="28"/>
       <c r="AK10" s="28"/>
       <c r="AL10" s="28"/>
       <c r="AM10" s="28"/>
-    </row>
-    <row r="11" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+    </row>
+    <row r="11" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2000,37 +2042,39 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
       <c r="AB11" s="29"/>
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="29"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
-    </row>
-    <row r="12" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+    </row>
+    <row r="12" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2041,37 +2085,39 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
       <c r="AB12" s="29"/>
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="29"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
-    </row>
-    <row r="13" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+    </row>
+    <row r="13" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2082,37 +2128,39 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
       <c r="AB13" s="29"/>
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="29"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
-    </row>
-    <row r="14" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+    </row>
+    <row r="14" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2123,40 +2171,42 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
       <c r="AB14" s="29"/>
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="28"/>
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
       <c r="AP14" s="26"/>
-    </row>
-    <row r="15" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+    </row>
+    <row r="15" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2167,40 +2217,42 @@
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
       <c r="AB15" s="29"/>
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
       <c r="AP15" s="26"/>
-    </row>
-    <row r="16" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+    </row>
+    <row r="16" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2211,40 +2263,42 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
       <c r="AB16" s="29"/>
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
       <c r="AI16" s="28"/>
       <c r="AJ16" s="28"/>
       <c r="AK16" s="28"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
       <c r="AP16" s="26"/>
-    </row>
-    <row r="17" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+    </row>
+    <row r="17" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2255,40 +2309,42 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
       <c r="AB17" s="29"/>
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
       <c r="AL17" s="28"/>
       <c r="AM17" s="28"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
       <c r="AP17" s="26"/>
-    </row>
-    <row r="18" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+    </row>
+    <row r="18" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2299,40 +2355,42 @@
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="28"/>
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="28"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
       <c r="AP18" s="26"/>
-    </row>
-    <row r="19" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+    </row>
+    <row r="19" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2343,40 +2401,42 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
       <c r="AP19" s="26"/>
-    </row>
-    <row r="20" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+    </row>
+    <row r="20" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2387,40 +2447,42 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="28"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
       <c r="AP20" s="26"/>
-    </row>
-    <row r="21" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+    </row>
+    <row r="21" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2431,40 +2493,42 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
       <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
       <c r="AP21" s="26"/>
-    </row>
-    <row r="22" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+    </row>
+    <row r="22" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2475,40 +2539,42 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
       <c r="AM22" s="28"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
       <c r="AP22" s="26"/>
-    </row>
-    <row r="23" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+    </row>
+    <row r="23" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2519,40 +2585,42 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
       <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
       <c r="AL23" s="28"/>
       <c r="AM23" s="28"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
       <c r="AP23" s="26"/>
-    </row>
-    <row r="24" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+    </row>
+    <row r="24" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -2563,40 +2631,42 @@
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
       <c r="AB24" s="29"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="28"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
       <c r="AP24" s="26"/>
-    </row>
-    <row r="25" spans="1:42" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+    </row>
+    <row r="25" spans="1:44" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -2607,40 +2677,42 @@
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
       <c r="AP25" s="26"/>
-    </row>
-    <row r="26" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+    </row>
+    <row r="26" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -2651,40 +2723,42 @@
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
       <c r="AB26" s="29"/>
       <c r="AC26" s="29"/>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
       <c r="AL26" s="28"/>
       <c r="AM26" s="28"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
       <c r="AP26" s="26"/>
-    </row>
-    <row r="27" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+    </row>
+    <row r="27" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -2695,40 +2769,42 @@
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
       <c r="AD27" s="29"/>
       <c r="AE27" s="29"/>
       <c r="AF27" s="29"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
       <c r="AI27" s="28"/>
       <c r="AJ27" s="28"/>
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
       <c r="AP27" s="26"/>
-    </row>
-    <row r="28" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+    </row>
+    <row r="28" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2739,40 +2815,42 @@
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
       <c r="AB28" s="29"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
       <c r="AE28" s="29"/>
       <c r="AF28" s="29"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="28"/>
       <c r="AK28" s="28"/>
       <c r="AL28" s="28"/>
       <c r="AM28" s="28"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
       <c r="AP28" s="26"/>
-    </row>
-    <row r="29" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+    </row>
+    <row r="29" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -2783,40 +2861,42 @@
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
       <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="29"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="28"/>
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
       <c r="AP29" s="26"/>
-    </row>
-    <row r="30" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+    </row>
+    <row r="30" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -2827,40 +2907,42 @@
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
       <c r="AD30" s="29"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
       <c r="AI30" s="28"/>
       <c r="AJ30" s="28"/>
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
       <c r="AM30" s="28"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
       <c r="AP30" s="26"/>
-    </row>
-    <row r="31" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+    </row>
+    <row r="31" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -2871,40 +2953,42 @@
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
       <c r="AB31" s="29"/>
       <c r="AC31" s="29"/>
       <c r="AD31" s="29"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
       <c r="AL31" s="28"/>
       <c r="AM31" s="28"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
       <c r="AP31" s="26"/>
-    </row>
-    <row r="32" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+    </row>
+    <row r="32" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -2915,40 +2999,42 @@
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
       <c r="AB32" s="29"/>
       <c r="AC32" s="29"/>
       <c r="AD32" s="29"/>
       <c r="AE32" s="29"/>
       <c r="AF32" s="29"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
       <c r="AI32" s="28"/>
       <c r="AJ32" s="28"/>
       <c r="AK32" s="28"/>
       <c r="AL32" s="28"/>
       <c r="AM32" s="28"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
       <c r="AP32" s="26"/>
-    </row>
-    <row r="33" spans="1:42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+    </row>
+    <row r="33" spans="1:44" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -2959,40 +3045,42 @@
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
       <c r="AB33" s="29"/>
       <c r="AC33" s="29"/>
       <c r="AD33" s="29"/>
       <c r="AE33" s="29"/>
       <c r="AF33" s="29"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
       <c r="AL33" s="28"/>
       <c r="AM33" s="28"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
       <c r="AP33" s="26"/>
-    </row>
-    <row r="34" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+    </row>
+    <row r="34" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -3003,37 +3091,39 @@
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="29"/>
       <c r="AD34" s="29"/>
       <c r="AE34" s="29"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
       <c r="AJ34" s="28"/>
       <c r="AK34" s="28"/>
       <c r="AL34" s="28"/>
       <c r="AM34" s="28"/>
-    </row>
-    <row r="35" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+    </row>
+    <row r="35" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -3044,37 +3134,39 @@
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
       <c r="AB35" s="29"/>
       <c r="AC35" s="29"/>
       <c r="AD35" s="29"/>
       <c r="AE35" s="29"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
       <c r="AJ35" s="28"/>
       <c r="AK35" s="28"/>
       <c r="AL35" s="28"/>
       <c r="AM35" s="28"/>
-    </row>
-    <row r="36" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+    </row>
+    <row r="36" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -3085,37 +3177,39 @@
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
       <c r="AB36" s="29"/>
       <c r="AC36" s="29"/>
       <c r="AD36" s="29"/>
       <c r="AE36" s="29"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="28"/>
       <c r="AK36" s="28"/>
       <c r="AL36" s="28"/>
       <c r="AM36" s="28"/>
-    </row>
-    <row r="37" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28"/>
+    </row>
+    <row r="37" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -3126,52 +3220,55 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
       <c r="AB37" s="29"/>
       <c r="AC37" s="29"/>
       <c r="AD37" s="29"/>
       <c r="AE37" s="29"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
       <c r="AH37" s="28"/>
       <c r="AI37" s="28"/>
       <c r="AJ37" s="28"/>
       <c r="AK37" s="28"/>
       <c r="AL37" s="28"/>
       <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AM33" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A4:AO33" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <dataConsolidate/>
   <mergeCells count="10">
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="O2:U3"/>
-    <mergeCell ref="Z2:AE3"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A2:L3"/>
+    <mergeCell ref="Q2:W3"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="X2:AA3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="V5:V1048576">
+  <conditionalFormatting sqref="X5:X1048576">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"异常关闭"</formula>
     </cfRule>
@@ -3189,20 +3286,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AC13" xr:uid="{00000000-0002-0000-0B00-000002000000}">
-      <formula1>INDIRECT($X5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE5:AE13" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+      <formula1>INDIRECT($Z5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AB13" xr:uid="{00000000-0002-0000-0B00-000006000000}">
-      <formula1>INDIRECT($W5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AD13" xr:uid="{00000000-0002-0000-0B00-000006000000}">
+      <formula1>INDIRECT($Y5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P4" xr:uid="{00000000-0002-0000-0B00-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R4" xr:uid="{00000000-0002-0000-0B00-000011000000}">
       <formula1>"是,否，仅为任务参与人"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AD13" xr:uid="{00000000-0002-0000-0B00-00000B000000}">
-      <formula1>INDIRECT($AC5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF13" xr:uid="{00000000-0002-0000-0B00-00000B000000}">
+      <formula1>INDIRECT($AE5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE5:AE13" xr:uid="{00000000-0002-0000-0B00-00000D000000}">
-      <formula1>INDIRECT($AD5)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG5:AG13" xr:uid="{00000000-0002-0000-0B00-00000D000000}">
+      <formula1>INDIRECT($AF5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3332,11 +3429,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:XFC22"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,205 +3443,211 @@
     <col min="3" max="3" width="13.109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="29" customWidth="1"/>
     <col min="5" max="9" width="8.6640625" style="29" customWidth="1"/>
-    <col min="10" max="13" width="9.77734375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="12" style="31" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="30" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" style="30" customWidth="1"/>
+    <col min="10" max="15" width="9.77734375" style="29" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="31" customWidth="1"/>
+    <col min="17" max="17" width="12" style="31" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="29" customWidth="1"/>
     <col min="19" max="19" width="11.109375" style="30" customWidth="1"/>
-    <col min="20" max="21" width="13.6640625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="29" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="19" style="30" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" style="30" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" style="29" customWidth="1"/>
-    <col min="27" max="28" width="11.109375" style="31" customWidth="1"/>
-    <col min="29" max="29" width="16.44140625" style="29" customWidth="1"/>
-    <col min="30" max="30" width="21.109375" style="29" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" style="30" customWidth="1"/>
-    <col min="32" max="32" width="15.88671875" style="30" customWidth="1"/>
-    <col min="33" max="35" width="9.77734375" style="29" customWidth="1"/>
-    <col min="36" max="38" width="10" style="29"/>
-    <col min="39" max="39" width="10" style="28"/>
-    <col min="40" max="40" width="12.44140625" style="29" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" style="29" customWidth="1"/>
-    <col min="42" max="42" width="11.88671875" style="29" customWidth="1"/>
-    <col min="43" max="43" width="13.109375" style="29" customWidth="1"/>
-    <col min="44" max="44" width="12.21875" style="29" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" style="28" customWidth="1"/>
-    <col min="46" max="46" width="8.88671875" style="28"/>
-    <col min="47" max="16383" width="8.88671875" style="4"/>
+    <col min="20" max="20" width="15.21875" style="30" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="30" customWidth="1"/>
+    <col min="22" max="23" width="13.6640625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="29" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="29" customWidth="1"/>
+    <col min="26" max="26" width="19" style="30" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="30" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" style="29" customWidth="1"/>
+    <col min="29" max="30" width="11.109375" style="31" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" style="29" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" style="29" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" style="30" customWidth="1"/>
+    <col min="34" max="34" width="15.88671875" style="30" customWidth="1"/>
+    <col min="35" max="37" width="9.77734375" style="29" customWidth="1"/>
+    <col min="38" max="40" width="10" style="29"/>
+    <col min="41" max="41" width="10" style="28"/>
+    <col min="42" max="42" width="12.44140625" style="29" customWidth="1"/>
+    <col min="43" max="43" width="13.33203125" style="29" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" style="29" customWidth="1"/>
+    <col min="45" max="45" width="13.109375" style="29" customWidth="1"/>
+    <col min="46" max="46" width="12.21875" style="29" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" style="28" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="28"/>
+    <col min="49" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:51" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="33"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
       <c r="AB1" s="34"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="24"/>
-    </row>
-    <row r="2" spans="1:49" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="24"/>
+    </row>
+    <row r="2" spans="1:51" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
       <c r="AA2" s="40"/>
       <c r="AB2" s="40"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="41" t="s">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-    </row>
-    <row r="3" spans="1:49" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+    </row>
+    <row r="3" spans="1:51" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="40"/>
       <c r="O3" s="40"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="7" t="s">
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AN3" s="37" t="s">
+      <c r="AP3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37" t="s">
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
@@ -3560,1057 +3663,325 @@
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="Z4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="AB4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AC4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AD4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AE4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AF4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AG4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AH4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AI4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AK4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AL4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AM4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AN4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AO4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AP4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AQ4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AR4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AQ4" s="15" t="s">
+      <c r="AS4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AR4" s="15" t="s">
+      <c r="AT4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AU4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AT4" s="16"/>
-    </row>
-    <row r="5" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
+      <c r="AV4" s="16"/>
+    </row>
+    <row r="5" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R5" s="32"/>
+      <c r="AE5" s="27"/>
       <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29"/>
       <c r="AW5" s="26"/>
-    </row>
-    <row r="6" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+    </row>
+    <row r="6" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R6" s="32"/>
+      <c r="AE6" s="27"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
       <c r="AW6" s="26"/>
-    </row>
-    <row r="7" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+    </row>
+    <row r="7" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R7" s="32"/>
+      <c r="AE7" s="27"/>
       <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
       <c r="AW7" s="26"/>
-    </row>
-    <row r="8" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+    </row>
+    <row r="8" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R8" s="32"/>
+      <c r="AE8" s="27"/>
       <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
       <c r="AW8" s="26"/>
-    </row>
-    <row r="9" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+    </row>
+    <row r="9" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R9" s="32"/>
+      <c r="AE9" s="27"/>
       <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
       <c r="AW9" s="26"/>
-    </row>
-    <row r="10" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+    </row>
+    <row r="10" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R10" s="32"/>
+      <c r="AE10" s="27"/>
       <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
       <c r="AW10" s="26"/>
-    </row>
-    <row r="11" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+    </row>
+    <row r="11" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R11" s="32"/>
+      <c r="AE11" s="27"/>
       <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
       <c r="AW11" s="26"/>
-    </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+    </row>
+    <row r="12" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R12" s="32"/>
+      <c r="AE12" s="27"/>
       <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
       <c r="AW12" s="26"/>
-    </row>
-    <row r="13" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+    </row>
+    <row r="13" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R13" s="32"/>
+      <c r="AE13" s="27"/>
       <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
       <c r="AW13" s="26"/>
-    </row>
-    <row r="14" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+    </row>
+    <row r="14" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R14" s="32"/>
+      <c r="AE14" s="27"/>
       <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
       <c r="AW14" s="26"/>
-    </row>
-    <row r="15" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+    </row>
+    <row r="15" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R15" s="32"/>
+      <c r="AE15" s="27"/>
       <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
       <c r="AW15" s="26"/>
-    </row>
-    <row r="16" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+    </row>
+    <row r="16" spans="1:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R16" s="32"/>
+      <c r="AE16" s="27"/>
       <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
-      <c r="AT16" s="29"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
       <c r="AW16" s="26"/>
-    </row>
-    <row r="17" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+    </row>
+    <row r="17" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R17" s="32"/>
+      <c r="AE17" s="27"/>
       <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="29"/>
-      <c r="AT17" s="29"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
       <c r="AW17" s="26"/>
-    </row>
-    <row r="18" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+    </row>
+    <row r="18" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R18" s="32"/>
+      <c r="AE18" s="27"/>
       <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
       <c r="AW18" s="26"/>
-    </row>
-    <row r="19" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+    </row>
+    <row r="19" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R19" s="32"/>
+      <c r="AE19" s="27"/>
       <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
       <c r="AW19" s="26"/>
-    </row>
-    <row r="20" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+    </row>
+    <row r="20" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R20" s="32"/>
+      <c r="AE20" s="27"/>
       <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
       <c r="AW20" s="26"/>
-    </row>
-    <row r="21" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+    </row>
+    <row r="21" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R21" s="32"/>
+      <c r="AE21" s="27"/>
       <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
       <c r="AW21" s="26"/>
-    </row>
-    <row r="22" spans="1:49" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+    </row>
+    <row r="22" spans="18:51" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R22" s="32"/>
+      <c r="AE22" s="27"/>
       <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
       <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A4:AW22" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A4:AY22" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <mergeCells count="10">
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="AM2:AT2"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="A1:AV1"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="Q2:U3"/>
-    <mergeCell ref="V2:AB3"/>
+    <mergeCell ref="AE2:AH3"/>
+    <mergeCell ref="A2:R3"/>
+    <mergeCell ref="AI2:AN3"/>
+    <mergeCell ref="S2:W3"/>
+    <mergeCell ref="X2:AD3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="AC5:AC1048576">
+  <conditionalFormatting sqref="AE5:AE1048576">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"异常关闭"</formula>
     </cfRule>
@@ -4628,8 +3999,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AN1 AM2 AM3:AT3 AO1:AQ2" xr:uid="{00000000-0002-0000-0A00-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{00000000-0002-0000-0A00-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AP1 AO2 AO3:AV3 AQ1:AS2" xr:uid="{00000000-0002-0000-0A00-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{00000000-0002-0000-0A00-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
